--- a/data_created/meta_model.xlsx
+++ b/data_created/meta_model.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinjin/Dropbox/NHANES_risk_score/500cities_data/Updated_July_06_2020/data_created/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinjin/Dropbox/NHANES_risk_score/Nature Medicine Revision/Github_revision/COVID19Risk/data_created/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E911F1-D4A5-AC4C-AB51-6D0E83694DA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31BA8A7-A181-644E-A565-89720B945BDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="880" windowWidth="33400" windowHeight="20300" activeTab="1" xr2:uid="{EAA84A17-22F1-3E4E-8DB3-894445B95A9F}"/>
+    <workbookView xWindow="15160" yWindow="460" windowWidth="23100" windowHeight="20300" xr2:uid="{EAA84A17-22F1-3E4E-8DB3-894445B95A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="coefficients" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients_individual_level" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -530,19 +530,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447E5D91-D86A-544C-B969-3E2F424F2D03}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="133" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -556,182 +557,180 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3">
-        <f>LN(0.048)</f>
-        <v>-3.0365542680742461</v>
+      <c r="B2">
+        <v>-3.0353428999999998</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3">
-        <f>LN(0.37)</f>
-        <v>-0.9942522733438669</v>
+      <c r="B3">
+        <v>-0.99773959999999995</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3">
-        <f>LN(2.12)</f>
-        <v>0.75141608868392118</v>
+      <c r="B4">
+        <v>0.78093029999999997</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="3">
-        <f>LN(5.02)</f>
-        <v>1.6134299337036377</v>
+      <c r="B5">
+        <v>1.6522273999999999</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3">
-        <f>LN(15.39)</f>
-        <v>2.733717947850788</v>
+      <c r="B6">
+        <v>2.7463052999999999</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.65800000000000003</v>
+      <c r="B7">
+        <v>0.43178241642553783</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2">
-        <f>LN(1.28)</f>
-        <v>0.24686007793152581</v>
+      <c r="B8">
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2">
-        <f>LN(1.6)</f>
-        <v>0.47000362924573563</v>
+      <c r="B9">
+        <v>0.34358970439007686</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2">
-        <f>LN(2.28)</f>
-        <v>0.82417544296634937</v>
+      <c r="B10">
+        <v>0.65232518603969014</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3">
-        <f>LN(1.32)</f>
-        <v>0.27763173659827955</v>
+      <c r="B11">
+        <v>0.19885085874516517</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3">
-        <f>LN(0.94)</f>
-        <v>-6.1875403718087529E-2</v>
+      <c r="B12">
+        <v>-7.2570692834835374E-2</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3">
-        <f>LN(2.3)</f>
-        <v>0.83290912293510388</v>
+      <c r="B13">
+        <v>0.86006819999999995</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="3">
-        <f>LN(2.58)</f>
-        <v>0.94778939893352609</v>
+      <c r="B14">
+        <v>0.97250720000000002</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3">
-        <f>LN(1.35)</f>
-        <v>0.30010459245033816</v>
+      <c r="B15">
+        <v>0.30260949999999998</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3">
-        <f>LN(1.71)</f>
-        <v>0.53649337051456847</v>
+      <c r="B16">
+        <v>0.538802</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
@@ -739,50 +738,50 @@
       <c r="D16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2">
-        <f>LN(1.19)</f>
-        <v>0.17395330712343798</v>
+      <c r="B17">
+        <v>0.14842000511827322</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2">
-        <f>LN(1.26)</f>
+      <c r="B18">
         <v>0.23111172096338664</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="2">
-        <f>LN(1.53)</f>
-        <v>0.42526773540434409</v>
+      <c r="B19">
+        <v>0.43178241642553783</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
-        <f>LN(1.7)</f>
-        <v>0.53062825106217038</v>
+      <c r="B20">
+        <v>0.5709795465857378</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -790,181 +789,181 @@
       <c r="D20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2">
-        <f>LN(0.97)</f>
-        <v>-3.0459207484708574E-2</v>
+      <c r="B21">
+        <v>-9.431067947124129E-2</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="2">
-        <f>LN(1.79)</f>
-        <v>0.58221561985266368</v>
+      <c r="B22">
+        <v>0.50077528791248915</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2">
-        <v>4.9000000000000002E-2</v>
+        <v>-4.7031259999999998E-2</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="2">
-        <f>LN(1.27)</f>
-        <v>0.23901690047049992</v>
+      <c r="B24">
+        <v>0.14842000511827322</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="2">
-        <f>LN(1.47)</f>
-        <v>0.38526240079064489</v>
+      <c r="B25">
+        <v>0.24686007793152581</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="2">
-        <f>LN(2.23)</f>
-        <v>0.80200158547202738</v>
+      <c r="B26">
+        <v>0.62057648772510998</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2">
-        <f>LN(1.68)</f>
-        <v>0.51879379341516751</v>
+      <c r="B27">
+        <v>0.51282362642866375</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2">
-        <f>LN(1.21)</f>
+      <c r="B28">
         <v>0.1906203596086497</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2">
-        <f>LN(1.02)</f>
-        <v>1.980262729617973E-2</v>
+      <c r="B29">
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2">
-        <f>LN(3.3)</f>
-        <v>1.1939224684724346</v>
+      <c r="B30">
+        <v>0.84586826757760925</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2">
-        <f>LN(3.42)</f>
-        <v>1.2296405510745139</v>
+      <c r="B31">
+        <v>0.92821930273942876</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2">
-        <f>LN(1.84)</f>
-        <v>0.60976557162089429</v>
+      <c r="B32">
+        <v>0.43825493093115531</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="2">
-        <f>LN(1.75)</f>
-        <v>0.55961578793542266</v>
+      <c r="B33">
+        <v>0.77010822169607374</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="2">
-        <f>LN(1.76)</f>
-        <v>0.56531380905006046</v>
+      <c r="B34">
+        <v>0.36254720000000001</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="2">
-        <f>LN(1.17)</f>
-        <v>0.15700374880966469</v>
+      <c r="B35">
+        <v>0.13976194237515863</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -977,10 +976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6164BC7-DF5D-5549-8B90-2823145ACA0A}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,7 +989,7 @@
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1004,180 +1003,178 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3">
-        <f>LN(0.048)</f>
-        <v>-3.0365542680742461</v>
+      <c r="B2">
+        <v>-3.0353428999999998</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3">
-        <f>LN(0.37)</f>
-        <v>-0.9942522733438669</v>
+      <c r="B3">
+        <v>-0.99773959999999995</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3">
-        <f>LN(2.12)</f>
-        <v>0.75141608868392118</v>
+      <c r="B4">
+        <v>0.78093029999999997</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="3">
-        <f>LN(5.02)</f>
-        <v>1.6134299337036377</v>
+      <c r="B5">
+        <v>1.6522273999999999</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3">
-        <f>LN(15.39)</f>
-        <v>2.733717947850788</v>
+      <c r="B6">
+        <v>2.7463052999999999</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.65800000000000003</v>
+      <c r="B7">
+        <v>0.43178241642553783</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2">
-        <f>LN(1.28)</f>
-        <v>0.24686007793152581</v>
+      <c r="B8">
+        <v>4.8790164169432049E-2</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2">
-        <f>LN(1.6)</f>
-        <v>0.47000362924573563</v>
+      <c r="B9">
+        <v>0.34358970439007686</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2">
-        <f>LN(2.28)</f>
-        <v>0.82417544296634937</v>
+      <c r="B10">
+        <v>0.65232518603969014</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3">
-        <f>LN(1.32)</f>
-        <v>0.27763173659827955</v>
+      <c r="B11">
+        <v>0.19885085874516517</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3">
-        <f>LN(0.94)</f>
-        <v>-6.1875403718087529E-2</v>
+      <c r="B12">
+        <v>-7.2570692834835374E-2</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3">
-        <f>LN(2.3)</f>
-        <v>0.83290912293510388</v>
+      <c r="B13">
+        <v>0.86006819999999995</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="3">
-        <f>LN(2.58)</f>
-        <v>0.94778939893352609</v>
+      <c r="B14">
+        <v>0.97250720000000002</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3">
-        <f>LN(1.35)</f>
-        <v>0.30010459245033816</v>
+      <c r="B15">
+        <v>0.30260949999999998</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3">
-        <f>LN(1.71)</f>
-        <v>0.53649337051456847</v>
+      <c r="B16">
+        <v>0.538802</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
@@ -1185,46 +1182,50 @@
       <c r="D16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3">
-        <v>0.17399999999999999</v>
+      <c r="B17">
+        <v>0.14842000511827322</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
-        <v>0.23100000000000001</v>
+      <c r="B18">
+        <v>0.23111172096338664</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3">
-        <v>0.42499999999999999</v>
+      <c r="B19">
+        <v>0.43178241642553783</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3">
-        <v>0.53100000000000003</v>
+      <c r="B20">
+        <v>0.5709795465857378</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
@@ -1232,166 +1233,175 @@
       <c r="D20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3">
-        <v>-0.03</v>
+      <c r="B21">
+        <v>-9.431067947124129E-2</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="3">
-        <v>0.58199999999999996</v>
+      <c r="B22">
+        <v>0.50077528791248915</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="2">
-        <v>4.9000000000000002E-2</v>
+        <v>-4.7031259999999998E-2</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="3">
-        <v>0.23899999999999999</v>
+      <c r="B24">
+        <v>0.14842000511827322</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="3">
-        <v>0.53200000000000003</v>
+        <v>0.36576979999999998</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2">
-        <f>LN(1.68)</f>
-        <v>0.51879379341516751</v>
+      <c r="B26">
+        <v>0.51282362642866375</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="2">
-        <f>LN(1.21)</f>
+      <c r="B27">
         <v>0.1906203596086497</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="2">
-        <f>LN(1.02)</f>
-        <v>1.980262729617973E-2</v>
+      <c r="B28">
+        <v>-2.0202707317519466E-2</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="2">
-        <f>LN(3.3)</f>
-        <v>1.1939224684724346</v>
+      <c r="B29">
+        <v>0.84586826757760925</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="2">
-        <f>LN(3.42)</f>
-        <v>1.2296405510745139</v>
+      <c r="B30">
+        <v>0.92821930273942876</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="2">
-        <f>LN(1.84)</f>
-        <v>0.60976557162089429</v>
+      <c r="B31">
+        <v>0.43825493093115531</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="3">
-        <v>0.56000000000000005</v>
+      <c r="B32">
+        <v>0.77010822169607374</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="3">
-        <v>0.56499999999999995</v>
+      <c r="B33">
+        <v>0.36254720000000001</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="3">
-        <v>0.157</v>
+      <c r="B34">
+        <v>0.13976194237515863</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
